--- a/CRD_pro_2.xlsx
+++ b/CRD_pro_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f16e1f40e0bf47b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\3203-Design of experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A19C0E44-04AA-4D41-B200-3858AFD8CB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603AD08-A0B6-4675-A9A0-1CDCF046C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1F4E76E-9BA3-45E0-A3B3-3FBD9CF3E29C}"/>
   </bookViews>
@@ -405,7 +405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D3C98-919F-44A8-A3BA-8A6D7CC13C65}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
